--- a/datasets/excel/mvtec_distribution.xlsx
+++ b/datasets/excel/mvtec_distribution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,195 +453,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mvtec_carpet</t>
+          <t>mvtec_flat_cloth</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>mvtec_grid</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>mvtec_leather</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>mvtec_tile</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>mvtec_wood</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>mvtec_bottle</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>mvtec_cable</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>mvtec_capsule</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>mvtec_hazelnut</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>mvtec_metal_nut</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>mvtec_pill</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>mvtec_screw</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>mvtec_toothbrush</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>mvtec_transistor</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>mvtec_zipper</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/datasets/excel/mvtec_distribution.xlsx
+++ b/datasets/excel/mvtec_distribution.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mvtec_flat_cloth</t>
+          <t>mvtec_grid</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/datasets/excel/mvtec_distribution.xlsx
+++ b/datasets/excel/mvtec_distribution.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mvtec_grid</t>
+          <t>mvtec_grid-original</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/datasets/excel/mvtec_distribution.xlsx
+++ b/datasets/excel/mvtec_distribution.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mvtec_grid-original</t>
+          <t>mvtec_grid-visible</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/datasets/excel/mvtec_distribution.xlsx
+++ b/datasets/excel/mvtec_distribution.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mvtec_grid-visible</t>
+          <t>mvtec_grid-test</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/datasets/excel/mvtec_distribution.xlsx
+++ b/datasets/excel/mvtec_distribution.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mvtec_grid-test</t>
+          <t>mvtec_denim</t>
         </is>
       </c>
       <c r="B2" t="n">
